--- a/biology/Biochimie/Bêta-oxydation/Bêta-oxydation.xlsx
+++ b/biology/Biochimie/Bêta-oxydation/Bêta-oxydation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%AAta-oxydation</t>
+          <t>Bêta-oxydation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La β-oxydation, communément appelée spirale de Lynen, est la principale voie métabolique de dégradation des molécules d'acides gras pour produire :
 d'une part de l'acétyl-CoA, dont le groupe acétyle est oxydé par le cycle de Krebs
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%AAta-oxydation</t>
+          <t>Bêta-oxydation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Activation des acides gras et transport par la navette de la carnitine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acides gras sont dégradés dans les mitochondries sous forme d'acyl-CoA. Ces derniers se forment sous l'action d'une acyl-CoA synthétase, qui catalyse la réaction :
  + ATP + CoA-SH   →    + AMP + PPi.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%AAta-oxydation</t>
+          <t>Bêta-oxydation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,18 +566,135 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acides gras saturés
-Dans les mitochondries, la dégradation des acides gras saturés par la β-oxydation fait intervenir quatre réactions qui se déroulent dans la matrice mitochondriale.
+          <t>Acides gras saturés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les mitochondries, la dégradation des acides gras saturés par la β-oxydation fait intervenir quatre réactions qui se déroulent dans la matrice mitochondriale.
 La dégradation complète de l'acide gras se poursuit jusqu'à ce que la chaîne carbonée soit complètement découpée en molécules d'acétyl-CoA : c'est l'hélice de Lynen. Chaque tour de l'hélice raccourcit l'acyl-CoA de deux atomes de carbone et libère une molécule d'acétyl-CoA, une molécule de FADH2 et une molécule de NADH. Cette dégradation intervient par oxydations sur les carbones β successifs (étapes hydratation et thiolyse ci-dessus), d'où le terme de « β-oxydation ».
-À nombre pair d'atomes de carbone
-Dans le cas des acides gras saturés à nombre pair d'atomes de carbone, le dernier tour de l'hélice de Lynen conduit à la formation de deux molécules d'acétyl-CoA, d'une molécule de FADH2 et d'une molécule de NADH. Chacune des molécules d'acétyl-CoA peut alors être oxydée par le cycle de Krebs ou au contraire servir à des biosynthèses.
-À nombre impair d'atomes de carbone
-Dans le cas des acides gras saturés à nombre impair d'atomes de carbone, le dernier tour de l'hélice de Lynen conduit à la formation d'une molécule de propionyl-CoA, d'une molécule d'acétyl-CoA, d'une molécule de FADH2 et d'une molécule de NADH.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bêta-oxydation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%AAta-oxydation</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dans les mitochondries</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acides gras saturés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>À nombre pair d'atomes de carbone</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas des acides gras saturés à nombre pair d'atomes de carbone, le dernier tour de l'hélice de Lynen conduit à la formation de deux molécules d'acétyl-CoA, d'une molécule de FADH2 et d'une molécule de NADH. Chacune des molécules d'acétyl-CoA peut alors être oxydée par le cycle de Krebs ou au contraire servir à des biosynthèses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bêta-oxydation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%AAta-oxydation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dans les mitochondries</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acides gras saturés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>À nombre impair d'atomes de carbone</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans le cas des acides gras saturés à nombre impair d'atomes de carbone, le dernier tour de l'hélice de Lynen conduit à la formation d'une molécule de propionyl-CoA, d'une molécule d'acétyl-CoA, d'une molécule de FADH2 et d'une molécule de NADH.
 La propionyl-CoA est d'abord carboxylée par un ion bicarbonate HCO3− sous l'action de la propionyl-CoA carboxylase pour donner de la D-méthylmalonyl-CoA au cours d'une réaction impliquant un cofacteur biotine et l'hydrolyse d'une molécule d'ATP. La méthylmalonyl-CoA épimérase donne la L-méthylmalonyl-CoA, laquelle est convertie en succinyl-CoA par la méthylmalonyl-CoA mutase, une enzyme nécessitant un cofacteur B12 (cobalamine). La succinyl-CoA étant un intermédiaire du cycle de Krebs, c'est à ce niveau que la propionyl-CoA rejoint ce dernier.
 Cependant, la succinyl-CoA n'alimente pas le cycle de Krebs en atomes de carbone à oxyder, elle ne fait qu'augmenter le nombre d'intermédiaires du cycle de Krebs présents dans la cellule. Si ceux-ci dépassent la demande cataplérotique, par exemple afin de produire de l'aspartate ou du glutamate, une partie de l'oxaloacétate du cycle peut être orientée vers la néoglucogenèse via le phosphoénolpyruvate par la phosphoénolpyruvate carboxykinase :
-GTP + oxaloacétate → GDP + phosphoénolpyruvate + CO2.
-Acides gras insaturés
-La β-oxydation des acides gras insaturés pose un problème particulier dû à la présence éventuelle d'une ou de plusieurs doubles liaisons mal positionnées empêchant la formation d'une double liaison trans-Δ2 par l'acyl-CoA déshydrogénase.
+GTP + oxaloacétate → GDP + phosphoénolpyruvate + CO2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bêta-oxydation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%AAta-oxydation</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dans les mitochondries</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acides gras insaturés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La β-oxydation des acides gras insaturés pose un problème particulier dû à la présence éventuelle d'une ou de plusieurs doubles liaisons mal positionnées empêchant la formation d'une double liaison trans-Δ2 par l'acyl-CoA déshydrogénase.
 Ainsi, la dodécénoyl-CoA isomérase convertit les liaisons cis-Δ3 ou trans-Δ3 en liaison trans-Δ2, qui est un substrat enzymatique pour l'acyl-CoA déshydrogénase.
 La présence d'une liaison Δ4 ne bloque pas l'oxydation, qui donne deux doubles liaisons Δ2,Δ4 ; en revanche, cette configuration est bloquante pour l'énoyl-CoA hydratase et nécessite l'action d'une 2,4-diénoyl-CoA réductase pour convertir les liaisons trans-Δ2,trans-Δ4 ou trans-Δ2,cis-Δ4 en liaison trans-Δ2.
 Enfin, dans les cas des acides gras polyinsaturés, la Δ3,5-Δ2,4-diénoyl-CoA isomérase est nécessaire pour convertir les liaisons Δ3,Δ5 en liaisons Δ2,Δ4, configuration qui peut être traitée par la 2,4-diénoyl-CoA réductase, puis par l'énoyl-CoA hydratase.
@@ -571,31 +702,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B%C3%AAta-oxydation</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bêta-oxydation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%AAta-oxydation</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Dans les peroxysomes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les peroxysomes, ce sont avant tout les acides gras à longue et très longue chaîne qui sont dégradés, jusqu'à l'octanoyl-CoA — avec un résidu d'acide gras en C8. On pense que les acides gras à longue chaîne — à 22 atomes de carbone et plus — commencent par être oxydés dans les peroxysomes avant d'être entièrement dégradés par β-oxydation dans les mitochondries.
 Une différence essentielle de l'oxydation des acides gras dans les peroxysomes par rapport aux mitochondries est que la première étape de cette dégradation est réalisée par une enzyme spécifique, l'acyl-CoA oxydase (EC 1.3.3.6), qui catalyse la réaction :
@@ -606,37 +739,39 @@
 Ainsi, contrairement à l'acyl-CoA déshydrogénase, les électrons à haut potentiel ne sont pas récupérés sous forme de FADH2 permettant de libérer leur énergie métabolique sous forme d'ATP par la chaîne respiratoire ; à la place, on obtient du peroxyde d'hydrogène H2O2, dont la catalase, enzyme spécifique aux peroxysomes, catalyse ensuite la dismutation en eau H2O et oxygène O2.
 Une autre particularité des peroxysomes est que l'énoyl-CoA hydratase et la 3-hydroxyacyl-CoA déshydrogénase y sont présentes sous forme d'un complexe enzymatique multifonctionnel, alors qu'elles sont distinctes dans les mitochondries.
 Par ailleurs, la β-oxydation dans les peroxysomes requiert une carnitine acyltransférase peroxisomale, distincte des CPTI et CPTII mitochondriales, afin de permettre aux résidus acyle à très longue chaîne de traverser la membrane de cet organite.
-De plus, les acides gras à longue chaîne métabolisés dans les peroxysomes y sont importés non pas à l'aide de la navette de la carnitine, mais à l'aide d'une protéine ABCD1 (en) de la famille des transporteurs ABC ; la mutation du gène codant cette protéine chez l'homme est responsable d'une maladie génétique, l'adrénoleucodystrophie liée à l'X[1],[2], qui se traduit par une démyélinisation progressive du système nerveux central et l'accumulation d'acides gras linéaires saturés à très longue chaîne, notamment l'acide cérotique (C26:0).
+De plus, les acides gras à longue chaîne métabolisés dans les peroxysomes y sont importés non pas à l'aide de la navette de la carnitine, mais à l'aide d'une protéine ABCD1 (en) de la famille des transporteurs ABC ; la mutation du gène codant cette protéine chez l'homme est responsable d'une maladie génétique, l'adrénoleucodystrophie liée à l'X qui se traduit par une démyélinisation progressive du système nerveux central et l'accumulation d'acides gras linéaires saturés à très longue chaîne, notamment l'acide cérotique (C26:0).
 Enfin, la β-cétothiolase peroxysomale est également distincte de celle des mitochondries, avec une affinité différente pour les substrats ; elle n'est notamment efficace que sur les acides gras à plus de huit atomes de carbone, d'où l'accumulation d'octanoyl-CoA, qui doit être oxydé dans les mitochondries.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B%C3%AAta-oxydation</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bêta-oxydation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%AAta-oxydation</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Rendement énergétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'activation d'un acide gras en acyl-CoA par l'acyl-CoA synthétase consomme l'équivalent de deux molécules d'ATP, car l'ATP est hydrolysée en AMP et non en ADP au cours de cette réaction :
 Acide gras + ATP + CoA-SH → acyl-CoA + AMP + PPi.
@@ -653,31 +788,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B%C3%AAta-oxydation</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bêta-oxydation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%AAta-oxydation</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Cas particulier de l'acide phytanique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide phytanique est un acide gras saturé terpénoïde, donc ramifié, apporté dans l'organisme par le régime alimentaire. Il ne peut être dégradé directement par β-oxydation car le carbone β est porteur d'un groupe méthyle. Il doit donc au préalable subir une α-oxydation pour « raccourcir » la chaîne aliphatique d'un atome de carbone et faire en sorte que le groupe méthyle soit porté par le carbone α, permettant à la β-oxydation d'avoir lieu.
 La phytanoyl-CoA est ainsi convertie en pristanoyl-CoA dans les peroxysomes, où la pristanoyl-CoA peut commencer à être dégradée par β-oxydation jusqu'à ne plus avoir qu'une chaîne de longueur moyenne ; à ce stade, la molécule doit migrer dans une mitochondrie pour que la β-oxydation puisse se poursuivre jusqu'à dégradation complète du composé.
